--- a/LLM_Export/docker/mcpo/templates/Default_Template.xlsx
+++ b/LLM_Export/docker/mcpo/templates/Default_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhani.marouane\Documents\AiAgents\FroniusGpt\frida-applications\applications\mcpo\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaeta\source\repos\LLM_Gen_Export\LLM_Export\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0A484E-66D7-4F9A-9D7A-AB65CBCEDEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3656BA74-E974-4193-BABF-219EF5BAD843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="5">
   <si>
     <t>local currency</t>
   </si>
@@ -52,18 +52,12 @@
   <si>
     <t>text</t>
   </si>
-  <si>
-    <t>Total (optional)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm\-yyyy"/>
-  </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Noto Sans"/>
@@ -91,39 +85,13 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="17"/>
-      <name val="Noto Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="62"/>
-      <name val="Noto Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="17"/>
-      <name val="Noto Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="62"/>
-      <name val="Noto Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Noto Sans"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,18 +100,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -181,65 +143,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -250,25 +157,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -575,36 +470,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Tabelle4"/>
-  <dimension ref="B1:I56"/>
+  <dimension ref="B1:I55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.109375" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
-    <col min="4" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" customWidth="1"/>
-    <col min="10" max="10" width="2.88671875" customWidth="1"/>
+    <col min="1" max="1" width="1.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:9" ht="21" x14ac:dyDescent="0.5">
-      <c r="B3" s="14" t="s">
+    <row r="1" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -623,14 +517,14 @@
       <c r="G5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -649,14 +543,14 @@
       <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="2">
         <v>123456</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="2">
         <v>123456</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -675,14 +569,14 @@
       <c r="G7" s="2">
         <v>2</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="2">
         <v>234567</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="2">
         <v>234567</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -701,14 +595,14 @@
       <c r="G8" s="2">
         <v>3</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="2">
         <v>345678</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="2">
         <v>345678</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
@@ -727,14 +621,14 @@
       <c r="G9" s="2">
         <v>4</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="2">
         <v>456789</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="2">
         <v>456789</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
@@ -753,14 +647,14 @@
       <c r="G10" s="2">
         <v>5</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="2">
         <v>567900</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="2">
         <v>567900</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
@@ -779,14 +673,14 @@
       <c r="G11" s="2">
         <v>6</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="2">
         <v>679011</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="2">
         <v>679011</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
@@ -805,14 +699,14 @@
       <c r="G12" s="2">
         <v>7</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="2">
         <v>790122</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="2">
         <v>790122</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
@@ -831,14 +725,14 @@
       <c r="G13" s="2">
         <v>8</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="2">
         <v>901233</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="2">
         <v>901233</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
@@ -857,14 +751,14 @@
       <c r="G14" s="2">
         <v>9</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="2">
         <v>1012344</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="2">
         <v>1012344</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
@@ -883,14 +777,14 @@
       <c r="G15" s="2">
         <v>10</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="2">
         <v>1123455</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="2">
         <v>1123455</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
@@ -909,14 +803,14 @@
       <c r="G16" s="2">
         <v>11</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="2">
         <v>1234566</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="2">
         <v>1234566</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
@@ -935,14 +829,14 @@
       <c r="G17" s="2">
         <v>12</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="2">
         <v>1345677</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="2">
         <v>1345677</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
@@ -961,14 +855,14 @@
       <c r="G18" s="2">
         <v>13</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="2">
         <v>1456788</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="2">
         <v>1456788</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>4</v>
       </c>
@@ -987,14 +881,14 @@
       <c r="G19" s="2">
         <v>14</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="2">
         <v>1567899</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="2">
         <v>1567899</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
@@ -1013,14 +907,14 @@
       <c r="G20" s="2">
         <v>15</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="2">
         <v>1679010</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="2">
         <v>1679010</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
@@ -1039,14 +933,14 @@
       <c r="G21" s="2">
         <v>16</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="2">
         <v>1790121</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="2">
         <v>1790121</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
@@ -1065,14 +959,14 @@
       <c r="G22" s="2">
         <v>17</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="2">
         <v>1901232</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="2">
         <v>1901232</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>4</v>
       </c>
@@ -1091,14 +985,14 @@
       <c r="G23" s="2">
         <v>18</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="2">
         <v>2012343</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="2">
         <v>2012343</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
@@ -1117,14 +1011,14 @@
       <c r="G24" s="2">
         <v>19</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="2">
         <v>2123454</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="2">
         <v>2123454</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
@@ -1143,14 +1037,14 @@
       <c r="G25" s="2">
         <v>20</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="2">
         <v>2234565</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="2">
         <v>2234565</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
@@ -1169,14 +1063,14 @@
       <c r="G26" s="2">
         <v>21</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="2">
         <v>2345676</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="2">
         <v>2345676</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
@@ -1195,14 +1089,14 @@
       <c r="G27" s="2">
         <v>22</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="2">
         <v>2456787</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="2">
         <v>2456787</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
@@ -1221,14 +1115,14 @@
       <c r="G28" s="2">
         <v>23</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="2">
         <v>2567898</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="2">
         <v>2567898</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>4</v>
       </c>
@@ -1247,14 +1141,14 @@
       <c r="G29" s="2">
         <v>24</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="2">
         <v>2679009</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="2">
         <v>2679009</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
@@ -1273,14 +1167,14 @@
       <c r="G30" s="2">
         <v>25</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="2">
         <v>2790120</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="2">
         <v>2790120</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
@@ -1299,14 +1193,14 @@
       <c r="G31" s="2">
         <v>26</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="2">
         <v>2901231</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="2">
         <v>2901231</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
@@ -1325,14 +1219,14 @@
       <c r="G32" s="2">
         <v>27</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="2">
         <v>3012342</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="2">
         <v>3012342</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>4</v>
       </c>
@@ -1351,14 +1245,14 @@
       <c r="G33" s="2">
         <v>28</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="2">
         <v>3123453</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="2">
         <v>3123453</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>4</v>
       </c>
@@ -1377,14 +1271,14 @@
       <c r="G34" s="2">
         <v>29</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="2">
         <v>3234564</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="2">
         <v>3234564</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>4</v>
       </c>
@@ -1403,14 +1297,14 @@
       <c r="G35" s="2">
         <v>30</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="2">
         <v>3345675</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="2">
         <v>3345675</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>4</v>
       </c>
@@ -1429,14 +1323,14 @@
       <c r="G36" s="2">
         <v>31</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="2">
         <v>3456786</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="2">
         <v>3456786</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>4</v>
       </c>
@@ -1455,14 +1349,14 @@
       <c r="G37" s="2">
         <v>32</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="2">
         <v>3567897</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="2">
         <v>3567897</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
         <v>4</v>
       </c>
@@ -1481,14 +1375,14 @@
       <c r="G38" s="2">
         <v>33</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="2">
         <v>3679008</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I38" s="2">
         <v>3679008</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
         <v>4</v>
       </c>
@@ -1507,14 +1401,14 @@
       <c r="G39" s="2">
         <v>34</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="2">
         <v>3790119</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I39" s="2">
         <v>3790119</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
         <v>4</v>
       </c>
@@ -1533,14 +1427,14 @@
       <c r="G40" s="2">
         <v>35</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="2">
         <v>3901230</v>
       </c>
-      <c r="I40" s="8">
+      <c r="I40" s="2">
         <v>3901230</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>4</v>
       </c>
@@ -1559,14 +1453,14 @@
       <c r="G41" s="2">
         <v>36</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="2">
         <v>4012341</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I41" s="2">
         <v>4012341</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>4</v>
       </c>
@@ -1585,14 +1479,14 @@
       <c r="G42" s="2">
         <v>37</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="2">
         <v>4123452</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I42" s="2">
         <v>4123452</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
         <v>4</v>
       </c>
@@ -1611,14 +1505,14 @@
       <c r="G43" s="2">
         <v>64</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="2">
         <v>7123449</v>
       </c>
-      <c r="I43" s="8">
+      <c r="I43" s="2">
         <v>7123449</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
         <v>4</v>
       </c>
@@ -1637,14 +1531,14 @@
       <c r="G44" s="2">
         <v>65</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="2">
         <v>7234560</v>
       </c>
-      <c r="I44" s="8">
+      <c r="I44" s="2">
         <v>7234560</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
         <v>4</v>
       </c>
@@ -1663,14 +1557,14 @@
       <c r="G45" s="2">
         <v>66</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="2">
         <v>7345671</v>
       </c>
-      <c r="I45" s="8">
+      <c r="I45" s="2">
         <v>7345671</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
         <v>4</v>
       </c>
@@ -1689,14 +1583,14 @@
       <c r="G46" s="2">
         <v>67</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="2">
         <v>7456782</v>
       </c>
-      <c r="I46" s="8">
+      <c r="I46" s="2">
         <v>7456782</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
         <v>4</v>
       </c>
@@ -1715,14 +1609,14 @@
       <c r="G47" s="2">
         <v>68</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="2">
         <v>7567893</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I47" s="2">
         <v>7567893</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
         <v>4</v>
       </c>
@@ -1741,14 +1635,14 @@
       <c r="G48" s="2">
         <v>69</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="2">
         <v>7679004</v>
       </c>
-      <c r="I48" s="8">
+      <c r="I48" s="2">
         <v>7679004</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
         <v>4</v>
       </c>
@@ -1767,14 +1661,14 @@
       <c r="G49" s="2">
         <v>70</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="2">
         <v>7790115</v>
       </c>
-      <c r="I49" s="8">
+      <c r="I49" s="2">
         <v>7790115</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
         <v>4</v>
       </c>
@@ -1793,14 +1687,14 @@
       <c r="G50" s="2">
         <v>71</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="2">
         <v>7901226</v>
       </c>
-      <c r="I50" s="8">
+      <c r="I50" s="2">
         <v>7901226</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
         <v>4</v>
       </c>
@@ -1819,14 +1713,14 @@
       <c r="G51" s="2">
         <v>72</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="2">
         <v>8012337</v>
       </c>
-      <c r="I51" s="8">
+      <c r="I51" s="2">
         <v>8012337</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
         <v>4</v>
       </c>
@@ -1845,14 +1739,14 @@
       <c r="G52" s="2">
         <v>73</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="2">
         <v>8123448</v>
       </c>
-      <c r="I52" s="8">
+      <c r="I52" s="2">
         <v>8123448</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
         <v>4</v>
       </c>
@@ -1871,58 +1765,40 @@
       <c r="G53" s="2">
         <v>74</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="2">
         <v>8234559</v>
       </c>
-      <c r="I53" s="8">
+      <c r="I53" s="2">
         <v>8234559</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="2" t="s">
+    <row r="54" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G54" s="3">
         <v>75</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="3">
         <v>8345670</v>
       </c>
-      <c r="I54" s="8">
+      <c r="I54" s="3">
         <v>8345670</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="11">
-        <v>1537</v>
-      </c>
-      <c r="H55" s="12">
-        <v>171382512</v>
-      </c>
-      <c r="I55" s="13">
-        <v>171382512</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="B5:I5" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.31496062992125984"/>
